--- a/data/trans_bre/P1413-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1413-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.637742353869172</v>
+        <v>-1.664275689679977</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8931954589836687</v>
+        <v>-0.9577824948912808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4263539089848313</v>
+        <v>0.6621774865577446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.934459254830765</v>
+        <v>-1.511318989535444</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3339463335373622</v>
+        <v>-0.3581159259011459</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.289733227973329</v>
+        <v>-0.336061083201957</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1130065230677558</v>
+        <v>-0.169101916126467</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3603291710542384</v>
+        <v>-0.2573161571933202</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.505629983004225</v>
+        <v>3.407424383523401</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.946204134525721</v>
+        <v>3.842880888458131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.895640313774619</v>
+        <v>4.051975430989288</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.75808867132569</v>
+        <v>10.66561907786709</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.376644399996889</v>
+        <v>1.290525388547535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.796342559927535</v>
+        <v>2.767089354993733</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>4.882605887104661</v>
+        <v>4.456265899980274</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +735,7 @@
         <v>2.90250590200457</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.0132186458034</v>
+        <v>4.013218645803404</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3745350233029665</v>
@@ -747,7 +747,7 @@
         <v>1.034952039230929</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5698400655347959</v>
+        <v>0.5698400655347966</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5817813002112072</v>
+        <v>-0.3500632768782873</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7067477586418637</v>
+        <v>0.2964850964304304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3675653270408027</v>
+        <v>0.5322929999733216</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.3835044905951126</v>
+        <v>-0.4415711009589878</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06123082295989451</v>
+        <v>-0.05358139905692308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08158867326052137</v>
+        <v>0.01811679624359813</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05830501502907831</v>
+        <v>0.06463605120577502</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05306247464086589</v>
+        <v>-0.08347252160990022</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.679503443886566</v>
+        <v>5.989928488864606</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.150963921328003</v>
+        <v>6.175108701321891</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.09261242497664</v>
+        <v>5.655493723838994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.922259057591921</v>
+        <v>7.918073090852423</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.024810245904332</v>
+        <v>0.9771930416286034</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.6500428009015</v>
+        <v>1.74230816563318</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.102898868390549</v>
+        <v>3.291022010660746</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.612952330327083</v>
+        <v>1.569739173898575</v>
       </c>
     </row>
     <row r="10">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.30935677809027</v>
+        <v>-4.435818347546322</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.594233116444547</v>
+        <v>3.625765263199805</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.121523298724066</v>
+        <v>-1.246829891420174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.547701643285107</v>
+        <v>6.516117910620656</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.259005382537228</v>
+        <v>-0.2760501337798496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4490099189379946</v>
+        <v>0.4654787685087614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1512760954380266</v>
+        <v>-0.1545801979403084</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5271243213100448</v>
+        <v>0.5385714815484837</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.346402560093326</v>
+        <v>3.583500226983496</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.08073690412429</v>
+        <v>10.07040986283813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.727375125127894</v>
+        <v>4.585662183463383</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.04464005767664</v>
+        <v>14.35870753078093</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2555413951203945</v>
+        <v>0.2977066039937916</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.019401477976832</v>
+        <v>2.059392921543654</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8554440429534081</v>
+        <v>0.8211706342679007</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.709448522663351</v>
+        <v>1.703585925811878</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>4.128730585013366</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.303225224352023</v>
+        <v>8.30322522435203</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1789099732012598</v>
@@ -947,7 +947,7 @@
         <v>0.4509896804353778</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4086689241212697</v>
+        <v>0.40866892412127</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.614955974562322</v>
+        <v>-1.387966271019313</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.942015940003237</v>
+        <v>4.461853547158323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3455696769761974</v>
+        <v>0.4456028026152796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.232061981806742</v>
+        <v>4.095725394621704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07819452819862553</v>
+        <v>-0.06973962172550373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.348619056576853</v>
+        <v>0.3838479980777216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03281944466458665</v>
+        <v>0.03817323751457442</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1739174378425715</v>
+        <v>0.1711652910382609</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.51744295718666</v>
+        <v>8.789990673976767</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.71978178782115</v>
+        <v>12.42494033930647</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.710847458930385</v>
+        <v>7.785435421722922</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.86714529625698</v>
+        <v>12.38357429167731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5211998464364846</v>
+        <v>0.524372160362088</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.742660709314108</v>
+        <v>1.736237063278639</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.037908076605088</v>
+        <v>1.019485237706247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7310653607555193</v>
+        <v>0.6993585975424358</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1035,7 @@
         <v>8.52115997521598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12.7942721302479</v>
+        <v>12.79427213024792</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1367579955995892</v>
@@ -1047,7 +1047,7 @@
         <v>0.6867163821480383</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4836960107990951</v>
+        <v>0.4836960107990959</v>
       </c>
     </row>
     <row r="17">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.08478178495628</v>
+        <v>-10.67547661610881</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.88245349070756</v>
+        <v>8.874452355397976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.415414801238364</v>
+        <v>3.417182588218393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.988436385933312</v>
+        <v>8.206697304084516</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3031726350314127</v>
+        <v>-0.3128476293765904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5852985017495294</v>
+        <v>0.6109550443574415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2209801998390801</v>
+        <v>0.2188648936927917</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2685081084309899</v>
+        <v>0.2821831065852954</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.711128859741989</v>
+        <v>2.129357526751323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.84949594534342</v>
+        <v>19.54085028808977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.75578422997313</v>
+        <v>13.65976327953448</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.54044034376967</v>
+        <v>17.3226780866729</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06619670306216088</v>
+        <v>0.07990810666127397</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.915840147878199</v>
+        <v>1.929027625667462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.346676823380885</v>
+        <v>1.341215644451485</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7314597573464314</v>
+        <v>0.7381522654420174</v>
       </c>
     </row>
     <row r="19">
@@ -1147,7 +1147,7 @@
         <v>0.5936696466139646</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.7307714390949247</v>
+        <v>0.7307714390949248</v>
       </c>
     </row>
     <row r="20">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.106666115806911</v>
+        <v>3.06549792276914</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.675977087529165</v>
+        <v>5.801041299543959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.358259253285172</v>
+        <v>1.710124552965855</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14.65826240198264</v>
+        <v>14.72794734690528</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1284189444460028</v>
+        <v>0.09368063304609604</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2460380618725652</v>
+        <v>0.2512005488467404</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1446682106638616</v>
+        <v>0.101862843467379</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4930411067481844</v>
+        <v>0.4833456930834473</v>
       </c>
     </row>
     <row r="21">
@@ -1190,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.44880377005396</v>
+        <v>17.45628168934861</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.01111342151898</v>
+        <v>19.80270403803448</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.54520233824622</v>
+        <v>13.34939040605648</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25.04099723268317</v>
+        <v>25.36815594066904</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7414427306492473</v>
+        <v>0.7709431916592945</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.209510037814589</v>
+        <v>1.30821684543383</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.211423153497123</v>
+        <v>1.228319652609221</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.04024600600574</v>
+        <v>1.036959042605692</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1235,7 @@
         <v>10.94547202861198</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18.00912692655626</v>
+        <v>18.00912692655625</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03841468116764525</v>
@@ -1247,7 +1247,7 @@
         <v>0.5608558015415642</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4525905393698357</v>
+        <v>0.4525905393698356</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.935553067328009</v>
+        <v>-7.539693191294392</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.530071716777757</v>
+        <v>8.559029614198181</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.920685116460459</v>
+        <v>3.733856744051108</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12.29372096553674</v>
+        <v>12.08122301442508</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.178432242404752</v>
+        <v>-0.1894009736828082</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3695991672265601</v>
+        <v>0.3074961125503092</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1767296814994673</v>
+        <v>0.1532708501487914</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2810260613930147</v>
+        <v>0.2789327957730388</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.562391846957723</v>
+        <v>9.665485629560589</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.43283526287728</v>
+        <v>23.69705831029212</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.92691656938221</v>
+        <v>17.51542424749237</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.68553219238402</v>
+        <v>23.2193019936959</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3241902798707336</v>
+        <v>0.3347563609792</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.401025629842509</v>
+        <v>1.319548757802538</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.053148409420706</v>
+        <v>1.038494364197679</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6596952587320659</v>
+        <v>0.6454354710804581</v>
       </c>
     </row>
     <row r="25">
@@ -1335,7 +1335,7 @@
         <v>5.726382048783414</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12.04950338476415</v>
+        <v>12.04950338476416</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1890013094431436</v>
@@ -1347,7 +1347,7 @@
         <v>0.7004742986062025</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.6494402185610489</v>
+        <v>0.6494402185610495</v>
       </c>
     </row>
     <row r="26">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.165178514517089</v>
+        <v>1.319718412837851</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.505943626929014</v>
+        <v>7.583686778779539</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.217243374301023</v>
+        <v>4.09676521296248</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10.1941215910233</v>
+        <v>10.20903350577288</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06827278440146463</v>
+        <v>0.07628980131963066</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7597989443638199</v>
+        <v>0.7840553867404156</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4708503981096017</v>
+        <v>0.4713236300573193</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5202421642192735</v>
+        <v>0.5186464716292494</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.913521062609661</v>
+        <v>4.860513042346437</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.73732031394722</v>
+        <v>10.6453109089885</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.227857908861816</v>
+        <v>7.293177178726716</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14.05175269506516</v>
+        <v>13.97583316885039</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3249365131953034</v>
+        <v>0.3182537822233832</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.282746707660768</v>
+        <v>1.28372196658863</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.967320858115697</v>
+        <v>0.9632705383882995</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8059964063797732</v>
+        <v>0.7925161640518412</v>
       </c>
     </row>
     <row r="28">
